--- a/data/trans_camb/P23_11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_11_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,99</t>
+          <t>-0,99; 4,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,86</t>
+          <t>-1,67; 2,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 15,18</t>
+          <t>-0,6; 7,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; -0,62</t>
+          <t>-3,27; 14,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,16</t>
+          <t>-9,05; 10,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 11,75</t>
+          <t>-6,41; -0,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,47</t>
+          <t>-5,05; 1,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,07</t>
+          <t>-3,94; 4,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 8,89</t>
+          <t>-3,71; 6,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 3,96</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 1,22</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 1,14</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 3,94</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 8,63</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 5,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>160,13%</t>
+          <t>209,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,82%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>535,17%</t>
+          <t>279,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>99,89%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-4,84%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-52,08%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>70,29%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-31,8%</t>
+          <t>-47,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-40,56%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>196,85%</t>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-35,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-27,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-34,68%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>60,38%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>71,07%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-17,25%</t>
         </is>
       </c>
     </row>
@@ -811,27 +949,57 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 486,86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-88,31; 1623,42</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-90,68; 267,52</t>
+          <t>-100,0; 205,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-92,12; 200,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 1196,54</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 207,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-90,99; 229,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-65,6; 550,45</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-57,21; 642,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-79,12; 185,18</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,17</t>
+          <t>-1,98; 1,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 15,61</t>
+          <t>0,71; 16,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,06</t>
+          <t>-0,75; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,62</t>
+          <t>1,79; 16,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,9</t>
+          <t>1,32; 15,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 9,79</t>
+          <t>-7,34; 1,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,75</t>
+          <t>-4,3; 5,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 8,56</t>
+          <t>-5,44; 4,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 5,62</t>
+          <t>-4,61; 6,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 3,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 0,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 8,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 3,31</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 9,14</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 7,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>693,84%</t>
+          <t>788,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>172,41%</t>
+          <t>198,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-47,76%</t>
+          <t>381,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>407,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>-44,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-43,92%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>-6,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,76%</t>
+          <t>15,36%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-26,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-40,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>92,55%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>114,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>49,75%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1280,62 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,37; 75,43</t>
+          <t>9,46; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,89; 187,7</t>
+          <t>-14,04; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 289,98</t>
+          <t>-81,11; 52,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,26; 67,21</t>
+          <t>-51,64; 163,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 484,4</t>
+          <t>-67,3; 150,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 283,16</t>
+          <t>-61,79; 234,63</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-73,67; 77,7</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-81,01; 54,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-24,61; 402,91</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-56,08; 184,97</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; 425,86</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-33,49; 238,76</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>6,91</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,53</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 0,33</t>
+          <t>-13,47; 0,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,91; -0,36</t>
+          <t>-14,34; -0,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 1,66</t>
+          <t>-15,23; -1,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,27</t>
+          <t>3,24; 16,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,68</t>
+          <t>1,35; 15,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,23</t>
+          <t>-3,86; 3,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,22</t>
+          <t>-2,1; 5,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 1,77</t>
+          <t>-2,43; 6,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,69</t>
+          <t>1,59; 13,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 11,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 0,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 1,37</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 1,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 12,28</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 10,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-60,31%</t>
+          <t>-62,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-63,9%</t>
+          <t>-66,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,75%</t>
+          <t>-68,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>360,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>162,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-28,66%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,55%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>94,97%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51,31%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-32,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-22,06%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-23,81%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>153,21%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>88,93%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,66; 24,86</t>
+          <t>-92,62; 15,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-90,58; -4,08</t>
+          <t>-92,97; -20,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,54; 49,11</t>
+          <t>-94,25; -11,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 133,05</t>
+          <t>71,41; 1267,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 165,75</t>
+          <t>11,29; 555,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 281,62</t>
+          <t>-50,39; 121,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,22; 30,63</t>
+          <t>-30,67; 169,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 44,74</t>
+          <t>-35,55; 164,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 83,58</t>
+          <t>15,6; 253,26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 175,55</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-64,5; 21,91</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-61,55; 31,65</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-62,61; 31,64</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>55,37; 344,85</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>15,89; 214,63</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 6,31</t>
+          <t>-7,28; 5,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,59</t>
+          <t>-7,22; 5,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 12,92</t>
+          <t>-4,0; 12,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 3,69</t>
+          <t>-9,52; 6,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,11</t>
+          <t>-8,63; 4,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 6,23</t>
+          <t>-6,01; 4,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 3,61</t>
+          <t>-6,34; 4,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,86</t>
+          <t>-7,83; 1,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 7,82</t>
+          <t>-0,08; 10,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 8,7</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 3,3</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 3,33</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 4,77</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 7,2</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 5,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>110,25%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,76%</t>
+          <t>-15,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>-8,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-25,6%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>66,88%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-2,29%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>39,25%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,25; 226,31</t>
+          <t>-74,99; 177,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,49; 205,15</t>
+          <t>-75,42; 198,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 412,94</t>
+          <t>-63,33; 376,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 46,43</t>
+          <t>-61,99; 150,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 51,38</t>
+          <t>-56,41; 68,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 77,68</t>
+          <t>-41,49; 53,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 62,55</t>
+          <t>-43,21; 48,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 64,31</t>
+          <t>-55,83; 20,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 121,24</t>
+          <t>-2,06; 174,32</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-25,42; 112,11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-39,34; 54,37</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-40,87; 53,22</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-43,67; 77,67</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-17,92; 117,43</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-30,27; 63,75</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,28</t>
+          <t>-3,51; 2,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,63</t>
+          <t>-2,32; 7,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 15,24</t>
+          <t>0,54; 11,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 4,53</t>
+          <t>-3,55; 10,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,04</t>
+          <t>-7,48; 6,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 12,6</t>
+          <t>-5,21; 4,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,11</t>
+          <t>-6,4; 3,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,07</t>
+          <t>-3,32; 7,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,89; 11,78</t>
+          <t>-2,29; 10,43</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 5,88</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 2,31</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 3,43</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 7,01</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 8,4</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 3,99</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-19,95%</t>
+          <t>-18,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>302,68%</t>
+          <t>151,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,23%</t>
+          <t>-4,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>-7,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>-20,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>156,76%</t>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-5,25%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-12,02%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-2,69%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>62,01%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>48,66%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-5,19%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-85,47; 221,28</t>
+          <t>-77,37; 192,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,09; 529,07</t>
+          <t>-63,71; 533,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>43,43; 1011,79</t>
+          <t>-10,91; 823,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 109,11</t>
+          <t>-39,93; 219,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 74,93</t>
+          <t>-48,03; 84,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,76; 284,18</t>
+          <t>-56,32; 106,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 67,31</t>
+          <t>-64,22; 79,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 93,9</t>
+          <t>-36,64; 183,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>52,91; 341,1</t>
+          <t>-22,99; 175,61</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-45,46; 58,04</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-52,69; 82,83</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-49,14; 110,04</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-20,03; 192,04</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 142,51</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-35,06; 39,21</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
           <t>-1,8</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,01</t>
+          <t>-1,19; 6,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,77</t>
+          <t>-3,94; 1,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,17</t>
+          <t>-2,62; 6,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -0,14</t>
+          <t>-4,52; 4,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 2,28</t>
+          <t>-9,14; 1,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,63</t>
+          <t>-12,04; -0,6</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 1,53</t>
+          <t>-9,85; 1,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,21</t>
+          <t>-8,76; 4,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,76</t>
+          <t>-4,01; 9,02</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-7,81; 6,21</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 1,52</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 0,8</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 2,84</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 5,67</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 3,4</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>69,58%</t>
+          <t>110,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-61,99%</t>
+          <t>-53,45%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>138,2%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-56,07%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-51,2%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>-62,25%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-28,31%</t>
+          <t>-37,02%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-35,91%</t>
+          <t>-25,68%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-33,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-39,3%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-16,76%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-15,82%</t>
         </is>
       </c>
     </row>
@@ -1871,7 +2609,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 663,7</t>
+          <t>-45,7; 756,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1881,37 +2619,67 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-55,09; 854,24</t>
+          <t>-100,0; 1011,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-84,17; 15,07</t>
+          <t>-100,0; 835,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 60,63</t>
+          <t>-90,83; 104,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 219,01</t>
+          <t>-89,17; 3,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-68,67; 48,79</t>
+          <t>-77,1; 42,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-71,07; 42,6</t>
+          <t>-78,35; 93,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 201,21</t>
+          <t>-45,1; 283,81</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-63,61; 121,48</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-69,6; 50,12</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-76,05; 29,45</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-66,09; 79,56</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-39,64; 214,47</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-60,2; 66,64</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,32</t>
+          <t>-2,48; 1,5</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,79</t>
+          <t>-2,56; 1,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,64</t>
+          <t>-1,36; 3,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,01</t>
+          <t>1,31; 6,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,37</t>
+          <t>-0,98; 4,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,17</t>
+          <t>-3,89; -0,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,22</t>
+          <t>-2,56; 1,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,98</t>
+          <t>-2,54; 1,56</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,81</t>
+          <t>0,98; 5,88</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 3,17</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 0,12</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 1,3</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 1,68</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 5,64</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 3,18</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-10,94%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>-28,31%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-21,19%</t>
+          <t>-9,52%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>-6,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>55,95%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-22,7%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>71,62%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 58,46</t>
+          <t>-51,42; 68,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 69,53</t>
+          <t>-50,9; 73,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4,67; 212,7</t>
+          <t>-30,69; 131,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 1,22</t>
+          <t>17,81; 205,44</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 24,73</t>
+          <t>-13,32; 82,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>5,4; 89,54</t>
+          <t>-46,73; -0,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 4,44</t>
+          <t>-31,48; 19,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 22,22</t>
+          <t>-31,69; 25,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,9; 107,89</t>
+          <t>11,39; 104,86</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-19,68; 40,08</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-42,07; 5,29</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-28,44; 30,01</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-23,39; 37,66</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>31,36; 120,82</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-9,43; 43,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
